--- a/DocenteConsulta.xlsx
+++ b/DocenteConsulta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorB\Desktop\ArquivosPesquisaUNB\Rpibic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7DA712-987C-4144-8409-7BE443F84B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C3311C-0E04-486F-BE70-5E6427D644C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2286,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DI1" workbookViewId="0">
-      <selection activeCell="DS9" sqref="DS9"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="BT6" sqref="BT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3463,7 +3463,7 @@
         <v>113</v>
       </c>
       <c r="BS6" s="2"/>
-      <c r="BT6" s="2" t="s">
+      <c r="BT6" s="4" t="s">
         <v>122</v>
       </c>
       <c r="BV6" s="2"/>

--- a/DocenteConsulta.xlsx
+++ b/DocenteConsulta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorB\Desktop\ArquivosPesquisaUNB\Rpibic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE3678C-712A-4688-8EF9-87C297FC3807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34573CAC-12DB-4148-A0DA-E296EAB3B902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8948" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9011" uniqueCount="444">
   <si>
     <t>ID</t>
   </si>
@@ -1398,6 +1398,9 @@
   <si>
     <t>Mais de 10 anos, mas até 20 anos.</t>
   </si>
+  <si>
+    <t>Não sei responder</t>
+  </si>
 </sst>
 </file>
 
@@ -1449,7 +1452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1457,6 +1460,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1853,14 +1859,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:DU267" totalsRowShown="0">
-  <autoFilter ref="A1:DU267" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
-    <filterColumn colId="10">
-      <filters blank="1">
-        <filter val="Entre 11 e 20 anos."/>
-        <filter val="Option 2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:DU267" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="125">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="124"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="123"/>
@@ -2291,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E156" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K267"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3032,7 +3031,7 @@
       </c>
       <c r="DU3" s="2"/>
     </row>
-    <row r="4" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3068,8 +3067,8 @@
       </c>
       <c r="V4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
+      <c r="Y4" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2">
@@ -3201,7 +3200,7 @@
       </c>
       <c r="DU4" s="2"/>
     </row>
-    <row r="5" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3368,7 +3367,7 @@
       </c>
       <c r="DU5" s="2"/>
     </row>
-    <row r="6" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3593,8 +3592,8 @@
         <v>3</v>
       </c>
       <c r="AJ7" s="2"/>
-      <c r="AK7" s="2">
-        <v>0</v>
+      <c r="AK7" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2" t="s">
@@ -3714,7 +3713,7 @@
       </c>
       <c r="DU7" s="2"/>
     </row>
-    <row r="8" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3928,8 +3927,8 @@
         <v>1</v>
       </c>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="2">
-        <v>1</v>
+      <c r="AE9" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2">
@@ -4060,7 +4059,7 @@
       </c>
       <c r="DU9" s="2"/>
     </row>
-    <row r="10" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4904,7 +4903,7 @@
       </c>
       <c r="DU14" s="2"/>
     </row>
-    <row r="15" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5077,7 +5076,7 @@
       </c>
       <c r="DU15" s="2"/>
     </row>
-    <row r="16" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5246,7 +5245,7 @@
       </c>
       <c r="DU16" s="2"/>
     </row>
-    <row r="17" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5755,7 +5754,7 @@
       </c>
       <c r="DU19" s="2"/>
     </row>
-    <row r="20" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5920,7 +5919,7 @@
       </c>
       <c r="DU20" s="2"/>
     </row>
-    <row r="21" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6091,7 +6090,7 @@
       </c>
       <c r="DU21" s="2"/>
     </row>
-    <row r="22" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6262,7 +6261,7 @@
       </c>
       <c r="DU22" s="2"/>
     </row>
-    <row r="23" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6597,7 +6596,7 @@
       </c>
       <c r="DU24" s="2"/>
     </row>
-    <row r="25" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6766,7 +6765,7 @@
       </c>
       <c r="DU25" s="2"/>
     </row>
-    <row r="26" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6935,7 +6934,7 @@
       </c>
       <c r="DU26" s="2"/>
     </row>
-    <row r="27" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7101,7 +7100,7 @@
       </c>
       <c r="DU27" s="2"/>
     </row>
-    <row r="28" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7268,7 +7267,7 @@
       </c>
       <c r="DU28" s="2"/>
     </row>
-    <row r="29" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7434,7 +7433,7 @@
       </c>
       <c r="DU29" s="2"/>
     </row>
-    <row r="30" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8100,7 +8099,7 @@
       </c>
       <c r="DU33" s="2"/>
     </row>
-    <row r="34" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8435,7 +8434,7 @@
       </c>
       <c r="DU35" s="2"/>
     </row>
-    <row r="36" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8606,7 +8605,7 @@
       </c>
       <c r="DU36" s="2"/>
     </row>
-    <row r="37" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8779,7 +8778,7 @@
       </c>
       <c r="DU37" s="2"/>
     </row>
-    <row r="38" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -9121,7 +9120,7 @@
       </c>
       <c r="DU39" s="2"/>
     </row>
-    <row r="40" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -9634,7 +9633,7 @@
       </c>
       <c r="DU42" s="2"/>
     </row>
-    <row r="43" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -9672,8 +9671,8 @@
         <v>4</v>
       </c>
       <c r="AA43" s="2"/>
-      <c r="AB43" s="2">
-        <v>1</v>
+      <c r="AB43" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AD43" s="2"/>
       <c r="AE43" s="2">
@@ -9976,7 +9975,7 @@
       </c>
       <c r="DU44" s="2"/>
     </row>
-    <row r="45" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -10147,7 +10146,7 @@
       </c>
       <c r="DU45" s="2"/>
     </row>
-    <row r="46" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -10313,7 +10312,7 @@
       </c>
       <c r="DU46" s="2"/>
     </row>
-    <row r="47" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -10349,8 +10348,8 @@
       </c>
       <c r="V47" s="2"/>
       <c r="X47" s="2"/>
-      <c r="Y47" s="2">
-        <v>1</v>
+      <c r="Y47" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2">
@@ -10653,7 +10652,7 @@
       </c>
       <c r="DU48" s="2"/>
     </row>
-    <row r="49" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -10820,7 +10819,7 @@
       </c>
       <c r="DU49" s="2"/>
     </row>
-    <row r="50" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -10854,16 +10853,16 @@
       </c>
       <c r="V50" s="2"/>
       <c r="X50" s="2"/>
-      <c r="Y50" s="2">
-        <v>1</v>
+      <c r="Y50" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2">
         <v>1</v>
       </c>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="2">
-        <v>1</v>
+      <c r="AE50" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2">
@@ -11487,7 +11486,7 @@
       </c>
       <c r="DU53" s="2"/>
     </row>
-    <row r="54" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11656,7 +11655,7 @@
       </c>
       <c r="DU54" s="2"/>
     </row>
-    <row r="55" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11992,7 +11991,7 @@
       </c>
       <c r="DU56" s="2"/>
     </row>
-    <row r="57" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12161,7 +12160,7 @@
       </c>
       <c r="DU57" s="2"/>
     </row>
-    <row r="58" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12197,8 +12196,8 @@
       </c>
       <c r="V58" s="2"/>
       <c r="X58" s="2"/>
-      <c r="Y58" s="2">
-        <v>1</v>
+      <c r="Y58" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2">
@@ -12327,7 +12326,7 @@
       </c>
       <c r="DU58" s="2"/>
     </row>
-    <row r="59" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12500,7 +12499,7 @@
       </c>
       <c r="DU59" s="2"/>
     </row>
-    <row r="60" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12676,7 +12675,7 @@
       </c>
       <c r="DU60" s="2"/>
     </row>
-    <row r="61" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13014,7 +13013,7 @@
       </c>
       <c r="DU62" s="2"/>
     </row>
-    <row r="63" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13583,8 +13582,8 @@
         <v>4</v>
       </c>
       <c r="AJ66" s="2"/>
-      <c r="AK66" s="2">
-        <v>0</v>
+      <c r="AK66" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AM66" s="2"/>
       <c r="AN66" s="2" t="s">
@@ -13700,7 +13699,7 @@
       </c>
       <c r="DU66" s="2"/>
     </row>
-    <row r="67" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13869,7 +13868,7 @@
       </c>
       <c r="DU67" s="2"/>
     </row>
-    <row r="68" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -14036,7 +14035,7 @@
       </c>
       <c r="DU68" s="2"/>
     </row>
-    <row r="69" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -14374,7 +14373,7 @@
       </c>
       <c r="DU70" s="2"/>
     </row>
-    <row r="71" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -14541,7 +14540,7 @@
       </c>
       <c r="DU71" s="2"/>
     </row>
-    <row r="72" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -15052,7 +15051,7 @@
       </c>
       <c r="DU74" s="2"/>
     </row>
-    <row r="75" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -15395,7 +15394,7 @@
       </c>
       <c r="DU76" s="2"/>
     </row>
-    <row r="77" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -15564,7 +15563,7 @@
       </c>
       <c r="DU77" s="2"/>
     </row>
-    <row r="78" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -15733,7 +15732,7 @@
       </c>
       <c r="DU78" s="2"/>
     </row>
-    <row r="79" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -15785,8 +15784,8 @@
         <v>3</v>
       </c>
       <c r="AJ79" s="2"/>
-      <c r="AK79" s="2">
-        <v>0</v>
+      <c r="AK79" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AM79" s="2"/>
       <c r="AN79" s="2" t="s">
@@ -15899,7 +15898,7 @@
       </c>
       <c r="DU79" s="2"/>
     </row>
-    <row r="80" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -15943,8 +15942,8 @@
         <v>4</v>
       </c>
       <c r="AD80" s="2"/>
-      <c r="AE80" s="2">
-        <v>1</v>
+      <c r="AE80" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AG80" s="2"/>
       <c r="AH80" s="2">
@@ -16068,7 +16067,7 @@
       </c>
       <c r="DU80" s="2"/>
     </row>
-    <row r="81" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -16108,8 +16107,8 @@
         <v>1</v>
       </c>
       <c r="AA81" s="2"/>
-      <c r="AB81" s="2">
-        <v>1</v>
+      <c r="AB81" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AD81" s="2"/>
       <c r="AE81" s="2">
@@ -16239,7 +16238,7 @@
       </c>
       <c r="DU81" s="2"/>
     </row>
-    <row r="82" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -16405,7 +16404,7 @@
       </c>
       <c r="DU82" s="2"/>
     </row>
-    <row r="83" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -16568,7 +16567,7 @@
       </c>
       <c r="DU83" s="2"/>
     </row>
-    <row r="84" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -16620,8 +16619,8 @@
         <v>3</v>
       </c>
       <c r="AJ84" s="2"/>
-      <c r="AK84" s="2">
-        <v>0</v>
+      <c r="AK84" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AM84" s="2"/>
       <c r="AN84" s="2" t="s">
@@ -16739,7 +16738,7 @@
       </c>
       <c r="DU84" s="2"/>
     </row>
-    <row r="85" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -17250,7 +17249,7 @@
       </c>
       <c r="DU87" s="2"/>
     </row>
-    <row r="88" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -17284,8 +17283,8 @@
       </c>
       <c r="V88" s="2"/>
       <c r="X88" s="2"/>
-      <c r="Y88" s="2">
-        <v>1</v>
+      <c r="Y88" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA88" s="2"/>
       <c r="AB88" s="2">
@@ -17296,8 +17295,8 @@
         <v>1</v>
       </c>
       <c r="AG88" s="2"/>
-      <c r="AH88" s="2">
-        <v>1</v>
+      <c r="AH88" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AJ88" s="2"/>
       <c r="AK88" s="2">
@@ -17417,7 +17416,7 @@
       </c>
       <c r="DU88" s="2"/>
     </row>
-    <row r="89" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -17453,12 +17452,12 @@
       </c>
       <c r="V89" s="2"/>
       <c r="X89" s="2"/>
-      <c r="Y89" s="2">
-        <v>1</v>
+      <c r="Y89" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA89" s="2"/>
-      <c r="AB89" s="2">
-        <v>1</v>
+      <c r="AB89" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AD89" s="2"/>
       <c r="AE89" s="2">
@@ -17588,7 +17587,7 @@
       </c>
       <c r="DU89" s="2"/>
     </row>
-    <row r="90" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -17957,8 +17956,8 @@
       </c>
       <c r="V92" s="2"/>
       <c r="X92" s="2"/>
-      <c r="Y92" s="2">
-        <v>1</v>
+      <c r="Y92" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA92" s="2"/>
       <c r="AB92" s="2">
@@ -18263,7 +18262,7 @@
       </c>
       <c r="DU93" s="2"/>
     </row>
-    <row r="94" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -18434,7 +18433,7 @@
       </c>
       <c r="DU94" s="2"/>
     </row>
-    <row r="95" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -18598,7 +18597,7 @@
       </c>
       <c r="DU95" s="2"/>
     </row>
-    <row r="96" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -19105,7 +19104,7 @@
       </c>
       <c r="DU98" s="2"/>
     </row>
-    <row r="99" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -19274,7 +19273,7 @@
       </c>
       <c r="DU99" s="2"/>
     </row>
-    <row r="100" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -19441,7 +19440,7 @@
       </c>
       <c r="DU100" s="2"/>
     </row>
-    <row r="101" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -19608,7 +19607,7 @@
       </c>
       <c r="DU101" s="2"/>
     </row>
-    <row r="102" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -19772,7 +19771,7 @@
       </c>
       <c r="DU102" s="2"/>
     </row>
-    <row r="103" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -19945,7 +19944,7 @@
       </c>
       <c r="DU103" s="2"/>
     </row>
-    <row r="104" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -20111,7 +20110,7 @@
       </c>
       <c r="DU104" s="2"/>
     </row>
-    <row r="105" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -20454,7 +20453,7 @@
       </c>
       <c r="DU106" s="2"/>
     </row>
-    <row r="107" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -20788,7 +20787,7 @@
       </c>
       <c r="DU108" s="2"/>
     </row>
-    <row r="109" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -21128,7 +21127,7 @@
       </c>
       <c r="DU110" s="2"/>
     </row>
-    <row r="111" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -21299,7 +21298,7 @@
       </c>
       <c r="DU111" s="2"/>
     </row>
-    <row r="112" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -21525,8 +21524,8 @@
         <v>3</v>
       </c>
       <c r="AJ113" s="2"/>
-      <c r="AK113" s="2">
-        <v>0</v>
+      <c r="AK113" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AM113" s="2"/>
       <c r="AN113" s="2" t="s">
@@ -21639,7 +21638,7 @@
       </c>
       <c r="DU113" s="2"/>
     </row>
-    <row r="114" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -21984,7 +21983,7 @@
       </c>
       <c r="DU115" s="2"/>
     </row>
-    <row r="116" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -22326,7 +22325,7 @@
       </c>
       <c r="DU117" s="2"/>
     </row>
-    <row r="118" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -22652,7 +22651,7 @@
       </c>
       <c r="DU119" s="2"/>
     </row>
-    <row r="120" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -22823,7 +22822,7 @@
       </c>
       <c r="DU120" s="2"/>
     </row>
-    <row r="121" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -22992,7 +22991,7 @@
       </c>
       <c r="DU121" s="2"/>
     </row>
-    <row r="122" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -23158,7 +23157,7 @@
       </c>
       <c r="DU122" s="2"/>
     </row>
-    <row r="123" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -23331,7 +23330,7 @@
       </c>
       <c r="DU123" s="2"/>
     </row>
-    <row r="124" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -23381,7 +23380,9 @@
         <v>3</v>
       </c>
       <c r="AJ124" s="2"/>
-      <c r="AK124" s="2"/>
+      <c r="AK124" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="AM124" s="2"/>
       <c r="AN124" s="2" t="s">
         <v>148</v>
@@ -23668,7 +23669,7 @@
       </c>
       <c r="DU125" s="2"/>
     </row>
-    <row r="126" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -23833,7 +23834,7 @@
       </c>
       <c r="DU126" s="2"/>
     </row>
-    <row r="127" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -23877,8 +23878,8 @@
         <v>1</v>
       </c>
       <c r="AD127" s="2"/>
-      <c r="AE127" s="2">
-        <v>1</v>
+      <c r="AE127" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AG127" s="2"/>
       <c r="AH127" s="2">
@@ -24002,7 +24003,7 @@
       </c>
       <c r="DU127" s="2"/>
     </row>
-    <row r="128" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -24169,7 +24170,7 @@
       </c>
       <c r="DU128" s="2"/>
     </row>
-    <row r="129" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -24557,8 +24558,8 @@
         <v>5</v>
       </c>
       <c r="AG131" s="2"/>
-      <c r="AH131" s="2">
-        <v>1</v>
+      <c r="AH131" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AJ131" s="2"/>
       <c r="AK131" s="2">
@@ -24676,7 +24677,7 @@
       </c>
       <c r="DU131" s="2"/>
     </row>
-    <row r="132" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -24712,8 +24713,8 @@
       </c>
       <c r="V132" s="2"/>
       <c r="X132" s="2"/>
-      <c r="Y132" s="2">
-        <v>1</v>
+      <c r="Y132" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA132" s="2"/>
       <c r="AB132" s="2">
@@ -24724,8 +24725,8 @@
         <v>4</v>
       </c>
       <c r="AG132" s="2"/>
-      <c r="AH132" s="2">
-        <v>1</v>
+      <c r="AH132" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AJ132" s="2"/>
       <c r="AK132" s="2">
@@ -24840,7 +24841,7 @@
       </c>
       <c r="DU132" s="2"/>
     </row>
-    <row r="133" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -25344,7 +25345,7 @@
       </c>
       <c r="DU135" s="2"/>
     </row>
-    <row r="136" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -25388,8 +25389,8 @@
         <v>4</v>
       </c>
       <c r="AD136" s="2"/>
-      <c r="AE136" s="2">
-        <v>1</v>
+      <c r="AE136" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AG136" s="2"/>
       <c r="AH136" s="2">
@@ -25515,7 +25516,7 @@
       </c>
       <c r="DU136" s="2"/>
     </row>
-    <row r="137" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -25686,7 +25687,7 @@
       </c>
       <c r="DU137" s="2"/>
     </row>
-    <row r="138" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -25857,7 +25858,7 @@
       </c>
       <c r="DU138" s="2"/>
     </row>
-    <row r="139" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -26195,7 +26196,7 @@
       </c>
       <c r="DU140" s="2"/>
     </row>
-    <row r="141" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -26414,12 +26415,12 @@
         <v>3</v>
       </c>
       <c r="AG142" s="2"/>
-      <c r="AH142" s="2">
-        <v>1</v>
+      <c r="AH142" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AJ142" s="2"/>
-      <c r="AK142" s="2">
-        <v>0</v>
+      <c r="AK142" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AM142" s="2"/>
       <c r="AN142" s="2" t="s">
@@ -26700,7 +26701,7 @@
       </c>
       <c r="DU143" s="2"/>
     </row>
-    <row r="144" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -26752,8 +26753,8 @@
         <v>1</v>
       </c>
       <c r="AJ144" s="2"/>
-      <c r="AK144" s="2">
-        <v>0</v>
+      <c r="AK144" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AM144" s="2"/>
       <c r="AN144" s="2" t="s">
@@ -26873,7 +26874,7 @@
       </c>
       <c r="DU144" s="2"/>
     </row>
-    <row r="145" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -27092,8 +27093,8 @@
         <v>4</v>
       </c>
       <c r="AG146" s="2"/>
-      <c r="AH146" s="2">
-        <v>1</v>
+      <c r="AH146" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AJ146" s="2"/>
       <c r="AK146" s="2">
@@ -27210,7 +27211,7 @@
       </c>
       <c r="DU146" s="2"/>
     </row>
-    <row r="147" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -27375,7 +27376,7 @@
       </c>
       <c r="DU147" s="2"/>
     </row>
-    <row r="148" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -27542,7 +27543,7 @@
       </c>
       <c r="DU148" s="2"/>
     </row>
-    <row r="149" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -27713,7 +27714,7 @@
       </c>
       <c r="DU149" s="2"/>
     </row>
-    <row r="150" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -27749,8 +27750,8 @@
       </c>
       <c r="V150" s="2"/>
       <c r="X150" s="2"/>
-      <c r="Y150" s="2">
-        <v>1</v>
+      <c r="Y150" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA150" s="2"/>
       <c r="AB150" s="2">
@@ -27915,8 +27916,8 @@
       </c>
       <c r="V151" s="2"/>
       <c r="X151" s="2"/>
-      <c r="Y151" s="2">
-        <v>1</v>
+      <c r="Y151" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA151" s="2"/>
       <c r="AB151" s="2">
@@ -28050,7 +28051,7 @@
       </c>
       <c r="DU151" s="2"/>
     </row>
-    <row r="152" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -28086,8 +28087,8 @@
       </c>
       <c r="V152" s="2"/>
       <c r="X152" s="2"/>
-      <c r="Y152" s="2">
-        <v>1</v>
+      <c r="Y152" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA152" s="2"/>
       <c r="AB152" s="2">
@@ -28273,8 +28274,8 @@
         <v>1</v>
       </c>
       <c r="AJ153" s="2"/>
-      <c r="AK153" s="2">
-        <v>1</v>
+      <c r="AK153" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AM153" s="2"/>
       <c r="AN153" s="2" t="s">
@@ -28390,7 +28391,7 @@
       </c>
       <c r="DU153" s="2"/>
     </row>
-    <row r="154" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -28898,7 +28899,7 @@
       </c>
       <c r="DU156" s="2"/>
     </row>
-    <row r="157" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -28934,8 +28935,8 @@
       </c>
       <c r="V157" s="2"/>
       <c r="X157" s="2"/>
-      <c r="Y157" s="2">
-        <v>1</v>
+      <c r="Y157" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA157" s="2"/>
       <c r="AB157" s="2">
@@ -29067,7 +29068,7 @@
       </c>
       <c r="DU157" s="2"/>
     </row>
-    <row r="158" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -29117,8 +29118,8 @@
         <v>1</v>
       </c>
       <c r="AJ158" s="2"/>
-      <c r="AK158" s="2">
-        <v>0</v>
+      <c r="AK158" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AM158" s="2"/>
       <c r="AN158" s="2" t="s">
@@ -29404,7 +29405,7 @@
       </c>
       <c r="DU159" s="2"/>
     </row>
-    <row r="160" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -29580,7 +29581,7 @@
       </c>
       <c r="DU160" s="2"/>
     </row>
-    <row r="161" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -29753,7 +29754,7 @@
       </c>
       <c r="DU161" s="2"/>
     </row>
-    <row r="162" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -30312,8 +30313,8 @@
         <v>4</v>
       </c>
       <c r="AJ165" s="2"/>
-      <c r="AK165" s="2">
-        <v>0</v>
+      <c r="AK165" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AM165" s="2"/>
       <c r="AN165" s="2" t="s">
@@ -30433,7 +30434,7 @@
       </c>
       <c r="DU165" s="2"/>
     </row>
-    <row r="166" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -30481,8 +30482,8 @@
         <v>4</v>
       </c>
       <c r="AG166" s="2"/>
-      <c r="AH166" s="2">
-        <v>1</v>
+      <c r="AH166" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AJ166" s="2"/>
       <c r="AK166" s="2">
@@ -30599,7 +30600,7 @@
       </c>
       <c r="DU166" s="2"/>
     </row>
-    <row r="167" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -31621,7 +31622,7 @@
       </c>
       <c r="DU172" s="2"/>
     </row>
-    <row r="173" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -31790,7 +31791,7 @@
       </c>
       <c r="DU173" s="2"/>
     </row>
-    <row r="174" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -31964,7 +31965,7 @@
       </c>
       <c r="DU174" s="2"/>
     </row>
-    <row r="175" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -32185,8 +32186,8 @@
         <v>1</v>
       </c>
       <c r="AJ176" s="2"/>
-      <c r="AK176" s="2">
-        <v>0</v>
+      <c r="AK176" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AM176" s="2"/>
       <c r="AN176" s="2" t="s">
@@ -32471,7 +32472,7 @@
       </c>
       <c r="DU177" s="2"/>
     </row>
-    <row r="178" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -32809,7 +32810,7 @@
       </c>
       <c r="DU179" s="2"/>
     </row>
-    <row r="180" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -32978,7 +32979,7 @@
       </c>
       <c r="DU180" s="2"/>
     </row>
-    <row r="181" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -33325,7 +33326,7 @@
       </c>
       <c r="DU182" s="2"/>
     </row>
-    <row r="183" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -33501,7 +33502,7 @@
       </c>
       <c r="DU183" s="2"/>
     </row>
-    <row r="184" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -33670,7 +33671,7 @@
       </c>
       <c r="DU184" s="2"/>
     </row>
-    <row r="185" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -33722,7 +33723,9 @@
         <v>4</v>
       </c>
       <c r="AJ185" s="2"/>
-      <c r="AK185" s="2"/>
+      <c r="AK185" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="AM185" s="2"/>
       <c r="AN185" s="2" t="s">
         <v>105</v>
@@ -33883,8 +33886,8 @@
         <v>4</v>
       </c>
       <c r="AD186" s="2"/>
-      <c r="AE186" s="2">
-        <v>1</v>
+      <c r="AE186" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AG186" s="2"/>
       <c r="AH186" s="2">
@@ -34008,7 +34011,7 @@
       </c>
       <c r="DU186" s="2"/>
     </row>
-    <row r="187" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -34056,11 +34059,13 @@
         <v>5</v>
       </c>
       <c r="AG187" s="2"/>
-      <c r="AH187" s="2">
-        <v>1</v>
+      <c r="AH187" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AJ187" s="2"/>
-      <c r="AK187" s="2"/>
+      <c r="AK187" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="AM187" s="2"/>
       <c r="AN187" s="2" t="s">
         <v>105</v>
@@ -34350,7 +34355,7 @@
       </c>
       <c r="DU188" s="2"/>
     </row>
-    <row r="189" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -34516,7 +34521,7 @@
       </c>
       <c r="DU189" s="2"/>
     </row>
-    <row r="190" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -34845,7 +34850,7 @@
       </c>
       <c r="DU191" s="2"/>
     </row>
-    <row r="192" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -35016,7 +35021,7 @@
       </c>
       <c r="DU192" s="2"/>
     </row>
-    <row r="193" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -35189,7 +35194,7 @@
       </c>
       <c r="DU193" s="2"/>
     </row>
-    <row r="194" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -35401,8 +35406,8 @@
         <v>4</v>
       </c>
       <c r="AG195" s="2"/>
-      <c r="AH195" s="2">
-        <v>1</v>
+      <c r="AH195" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AJ195" s="2"/>
       <c r="AK195" s="2">
@@ -35858,7 +35863,7 @@
       </c>
       <c r="DU197" s="2"/>
     </row>
-    <row r="198" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -36205,7 +36210,7 @@
       </c>
       <c r="DU199" s="2"/>
     </row>
-    <row r="200" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -36715,7 +36720,7 @@
       </c>
       <c r="DU202" s="2"/>
     </row>
-    <row r="203" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -36880,7 +36885,7 @@
       </c>
       <c r="DU203" s="2"/>
     </row>
-    <row r="204" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -37053,7 +37058,7 @@
       </c>
       <c r="DU204" s="2"/>
     </row>
-    <row r="205" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -37224,7 +37229,7 @@
       </c>
       <c r="DU205" s="2"/>
     </row>
-    <row r="206" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -37437,8 +37442,8 @@
         <v>5</v>
       </c>
       <c r="AG207" s="2"/>
-      <c r="AH207" s="2">
-        <v>1</v>
+      <c r="AH207" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AJ207" s="2"/>
       <c r="AK207" s="2">
@@ -37731,7 +37736,7 @@
       </c>
       <c r="DU208" s="2"/>
     </row>
-    <row r="209" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -37767,23 +37772,25 @@
       </c>
       <c r="V209" s="2"/>
       <c r="X209" s="2"/>
-      <c r="Y209" s="2">
-        <v>1</v>
+      <c r="Y209" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA209" s="2"/>
-      <c r="AB209" s="2">
-        <v>1</v>
+      <c r="AB209" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AD209" s="2"/>
-      <c r="AE209" s="2">
-        <v>1</v>
+      <c r="AE209" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AG209" s="2"/>
       <c r="AH209" s="2">
         <v>1</v>
       </c>
       <c r="AJ209" s="2"/>
-      <c r="AK209" s="2"/>
+      <c r="AK209" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="AM209" s="2"/>
       <c r="AN209" s="2" t="s">
         <v>105</v>
@@ -38071,7 +38078,7 @@
       </c>
       <c r="DU210" s="2"/>
     </row>
-    <row r="211" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -38245,7 +38252,7 @@
       </c>
       <c r="DU211" s="2"/>
     </row>
-    <row r="212" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -38281,8 +38288,8 @@
       </c>
       <c r="V212" s="2"/>
       <c r="X212" s="2"/>
-      <c r="Y212" s="2">
-        <v>1</v>
+      <c r="Y212" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA212" s="2"/>
       <c r="AB212" s="2">
@@ -38585,7 +38592,7 @@
       </c>
       <c r="DU213" s="2"/>
     </row>
-    <row r="214" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -38756,7 +38763,7 @@
       </c>
       <c r="DU214" s="2"/>
     </row>
-    <row r="215" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -38922,7 +38929,7 @@
       </c>
       <c r="DU215" s="2"/>
     </row>
-    <row r="216" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -39469,8 +39476,8 @@
       </c>
       <c r="V219" s="2"/>
       <c r="X219" s="2"/>
-      <c r="Y219" s="2">
-        <v>1</v>
+      <c r="Y219" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA219" s="2"/>
       <c r="AB219" s="2">
@@ -39597,7 +39604,7 @@
       </c>
       <c r="DU219" s="2"/>
     </row>
-    <row r="220" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -39931,7 +39938,7 @@
       </c>
       <c r="DU221" s="2"/>
     </row>
-    <row r="222" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -40100,7 +40107,7 @@
       </c>
       <c r="DU222" s="2"/>
     </row>
-    <row r="223" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -40146,12 +40153,12 @@
         <v>4</v>
       </c>
       <c r="AG223" s="2"/>
-      <c r="AH223" s="2">
-        <v>1</v>
+      <c r="AH223" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AJ223" s="2"/>
-      <c r="AK223" s="2">
-        <v>0</v>
+      <c r="AK223" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AM223" s="2"/>
       <c r="AN223" s="2" t="s">
@@ -40269,7 +40276,7 @@
       </c>
       <c r="DU223" s="2"/>
     </row>
-    <row r="224" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -40309,16 +40316,16 @@
         <v>4</v>
       </c>
       <c r="AA224" s="2"/>
-      <c r="AB224" s="2">
-        <v>1</v>
+      <c r="AB224" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AD224" s="2"/>
       <c r="AE224" s="2">
         <v>1</v>
       </c>
       <c r="AG224" s="2"/>
-      <c r="AH224" s="2">
-        <v>1</v>
+      <c r="AH224" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AJ224" s="2"/>
       <c r="AK224" s="2">
@@ -40438,7 +40445,7 @@
       </c>
       <c r="DU224" s="2"/>
     </row>
-    <row r="225" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -40949,7 +40956,7 @@
       </c>
       <c r="DU227" s="2"/>
     </row>
-    <row r="228" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -40983,8 +40990,8 @@
       </c>
       <c r="V228" s="2"/>
       <c r="X228" s="2"/>
-      <c r="Y228" s="2">
-        <v>1</v>
+      <c r="Y228" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA228" s="2"/>
       <c r="AB228" s="2">
@@ -41116,7 +41123,7 @@
       </c>
       <c r="DU228" s="2"/>
     </row>
-    <row r="229" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -41289,7 +41296,7 @@
       </c>
       <c r="DU229" s="2"/>
     </row>
-    <row r="230" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -41460,7 +41467,7 @@
       </c>
       <c r="DU230" s="2"/>
     </row>
-    <row r="231" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -42025,8 +42032,8 @@
         <v>4</v>
       </c>
       <c r="AJ234" s="2"/>
-      <c r="AK234" s="2">
-        <v>0</v>
+      <c r="AK234" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AM234" s="2"/>
       <c r="AN234" s="2" t="s">
@@ -42174,8 +42181,8 @@
       </c>
       <c r="V235" s="2"/>
       <c r="X235" s="2"/>
-      <c r="Y235" s="2">
-        <v>1</v>
+      <c r="Y235" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA235" s="2"/>
       <c r="AB235" s="2">
@@ -42186,8 +42193,8 @@
         <v>2</v>
       </c>
       <c r="AG235" s="2"/>
-      <c r="AH235" s="2">
-        <v>1</v>
+      <c r="AH235" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AJ235" s="2"/>
       <c r="AK235" s="2">
@@ -42343,8 +42350,8 @@
       </c>
       <c r="V236" s="2"/>
       <c r="X236" s="2"/>
-      <c r="Y236" s="2">
-        <v>1</v>
+      <c r="Y236" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA236" s="2"/>
       <c r="AB236" s="2">
@@ -42478,7 +42485,7 @@
       </c>
       <c r="DU236" s="2"/>
     </row>
-    <row r="237" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -42643,7 +42650,7 @@
       </c>
       <c r="DU237" s="2"/>
     </row>
-    <row r="238" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -42974,7 +42981,7 @@
       </c>
       <c r="DU239" s="2"/>
     </row>
-    <row r="240" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -43643,7 +43650,7 @@
       </c>
       <c r="DU243" s="2"/>
     </row>
-    <row r="244" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -43679,8 +43686,8 @@
       </c>
       <c r="V244" s="2"/>
       <c r="X244" s="2"/>
-      <c r="Y244" s="2">
-        <v>1</v>
+      <c r="Y244" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA244" s="2"/>
       <c r="AB244" s="2">
@@ -43983,7 +43990,7 @@
       </c>
       <c r="DU245" s="2"/>
     </row>
-    <row r="246" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -44190,8 +44197,8 @@
       </c>
       <c r="V247" s="2"/>
       <c r="X247" s="2"/>
-      <c r="Y247" s="2">
-        <v>1</v>
+      <c r="Y247" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="AA247" s="2"/>
       <c r="AB247" s="2">
@@ -44325,7 +44332,7 @@
       </c>
       <c r="DU247" s="2"/>
     </row>
-    <row r="248" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -44667,7 +44674,7 @@
       </c>
       <c r="DU249" s="2"/>
     </row>
-    <row r="250" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -44836,7 +44843,7 @@
       </c>
       <c r="DU250" s="2"/>
     </row>
-    <row r="251" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -44872,7 +44879,9 @@
         <v>1</v>
       </c>
       <c r="AA251" s="2"/>
-      <c r="AB251" s="2"/>
+      <c r="AB251" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="AD251" s="2"/>
       <c r="AE251" s="2">
         <v>1</v>
@@ -44991,7 +45000,7 @@
       </c>
       <c r="DU251" s="2"/>
     </row>
-    <row r="252" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -45338,7 +45347,7 @@
       </c>
       <c r="DU253" s="2"/>
     </row>
-    <row r="254" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -45505,7 +45514,7 @@
       </c>
       <c r="DU254" s="2"/>
     </row>
-    <row r="255" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -45672,7 +45681,7 @@
       </c>
       <c r="DU255" s="2"/>
     </row>
-    <row r="256" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -45839,7 +45848,7 @@
       </c>
       <c r="DU256" s="2"/>
     </row>
-    <row r="257" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -46349,7 +46358,7 @@
       </c>
       <c r="DU259" s="2"/>
     </row>
-    <row r="260" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -46513,7 +46522,7 @@
       </c>
       <c r="DU260" s="2"/>
     </row>
-    <row r="261" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -46682,7 +46691,7 @@
       </c>
       <c r="DU261" s="2"/>
     </row>
-    <row r="262" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -46903,8 +46912,8 @@
         <v>3</v>
       </c>
       <c r="AJ263" s="2"/>
-      <c r="AK263" s="2">
-        <v>0</v>
+      <c r="AK263" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="AM263" s="2"/>
       <c r="AN263" s="2" t="s">
@@ -47200,7 +47209,7 @@
       </c>
       <c r="DU264" s="2"/>
     </row>
-    <row r="265" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -47369,7 +47378,7 @@
       </c>
       <c r="DU265" s="2"/>
     </row>
-    <row r="266" spans="1:125" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>

--- a/DocenteConsulta.xlsx
+++ b/DocenteConsulta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorB\Desktop\ArquivosPesquisaUNB\Rpibic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34573CAC-12DB-4148-A0DA-E296EAB3B902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB60658-50D4-4352-B027-799C32EBA520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DocenteConsulta.xlsx
+++ b/DocenteConsulta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorB\Desktop\ArquivosPesquisaUNB\Rpibic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB60658-50D4-4352-B027-799C32EBA520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915F6540-736E-402B-B9FE-2B844AD84F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DU267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView tabSelected="1" topLeftCell="DJ1" workbookViewId="0">
+      <selection activeCell="CC1" sqref="CC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
